--- a/Сборка ун. платы/Список деталей ун платы.xlsx
+++ b/Сборка ун. платы/Список деталей ун платы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Work\Hardware\Bwl.GenericAvrPcb\Сборка ун. платы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -66,21 +66,12 @@
     <t>D-SMBJ24CA</t>
   </si>
   <si>
-    <t>LED-R-5MM</t>
-  </si>
-  <si>
     <t>D21</t>
   </si>
   <si>
-    <t>LED-G-5MM</t>
-  </si>
-  <si>
     <t>D22</t>
   </si>
   <si>
-    <t>LED-B-5MM</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>TIP120</t>
   </si>
   <si>
-    <t>RES-10K-1206</t>
-  </si>
-  <si>
     <t>R2, R6, R10, R11</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>R19, R21</t>
   </si>
   <si>
-    <t>RES-100R-2010</t>
-  </si>
-  <si>
     <t>S1, S2</t>
   </si>
   <si>
@@ -216,18 +201,12 @@
     <t>D2</t>
   </si>
   <si>
-    <t>GNL-5013UEC-1</t>
-  </si>
-  <si>
     <t>s1m</t>
   </si>
   <si>
     <t>SMBJ24CA-TR</t>
   </si>
   <si>
-    <t>FYL-5013PGC</t>
-  </si>
-  <si>
     <t>FYL-5013UBC</t>
   </si>
   <si>
@@ -249,18 +228,12 @@
     <t>LQH32CN100K23L</t>
   </si>
   <si>
-    <t>RC1206FR-0710KL</t>
-  </si>
-  <si>
     <t>RL2512FK-070R1L</t>
   </si>
   <si>
     <t>RC1206JR-071RL</t>
   </si>
   <si>
-    <t>CRCW2010100RJNEF</t>
-  </si>
-  <si>
     <t>IC-ATMEGA168PA-AU</t>
   </si>
   <si>
@@ -285,9 +258,6 @@
     <t xml:space="preserve">(RES-?-1206)  </t>
   </si>
   <si>
-    <t>D11, D20</t>
-  </si>
-  <si>
     <t>PLD-80</t>
   </si>
   <si>
@@ -307,6 +277,45 @@
   </si>
   <si>
     <t>R4, R9, R17, R23, R24, R25, R26, R27, R28, R29</t>
+  </si>
+  <si>
+    <t>RES-100R-2512</t>
+  </si>
+  <si>
+    <t>CRCW2512100RFKEG</t>
+  </si>
+  <si>
+    <t>RES-7K5-1206</t>
+  </si>
+  <si>
+    <t>RC1206FR-077K5L</t>
+  </si>
+  <si>
+    <t>LED-BG-3MM</t>
+  </si>
+  <si>
+    <t>FYL-3014UGC</t>
+  </si>
+  <si>
+    <t>LED-BR-3MM</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>LED-BW-3MM</t>
+  </si>
+  <si>
+    <t>FYL-3014UWC1A</t>
+  </si>
+  <si>
+    <t>LED-BB-3MM</t>
+  </si>
+  <si>
+    <t>FYL-3014URC</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F36" si="0">D4*$I$2</f>
+        <f t="shared" ref="F4:F37" si="0">D4*$I$2</f>
         <v>300</v>
       </c>
     </row>
@@ -1235,136 +1244,133 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1394,34 +1400,40 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1429,224 +1441,218 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -1655,38 +1661,41 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1694,38 +1703,38 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1733,20 +1742,17 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1754,17 +1760,20 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1772,20 +1781,17 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1793,54 +1799,75 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35">
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
